--- a/UpwardIQ/UpwardIQ/src/main/resources/static/customers.xlsx
+++ b/UpwardIQ/UpwardIQ/src/main/resources/static/customers.xlsx
@@ -35,22 +35,22 @@
     <t>Address</t>
   </si>
   <si>
-    <t>104</t>
+    <t>101</t>
   </si>
   <si>
-    <t>suma</t>
+    <t>Suma</t>
   </si>
   <si>
-    <t>Male</t>
+    <t>Female</t>
   </si>
   <si>
-    <t>s@g</t>
+    <t>suma@gmail.com</t>
   </si>
   <si>
-    <t>Regular</t>
+    <t>Premium</t>
   </si>
   <si>
-    <t>dlf</t>
+    <t>Kukatpally</t>
   </si>
 </sst>
 </file>
@@ -126,7 +126,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>7</v>
